--- a/excel/finished/wg8#高炉/烧结矿理化指标报表.xlsx
+++ b/excel/finished/wg8#高炉/烧结矿理化指标报表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZYSD 12\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB1A150-3E22-46C9-94E0-8FF0C56CD85C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED91E2AF-86C1-40E6-9E53-300AA7445354}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2040" windowWidth="26955" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8高炉烧结矿理化指标报表" sheetId="1" r:id="rId1"/>
@@ -766,13 +766,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AC31"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
@@ -798,7 +798,7 @@
       <c r="V1" s="13"/>
       <c r="W1" s="13"/>
     </row>
-    <row r="2" spans="2:29" ht="19.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:29" ht="19.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
@@ -834,7 +834,7 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="14"/>
     </row>
-    <row r="3" spans="2:29" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
@@ -920,7 +920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -992,7 +992,7 @@
       </c>
       <c r="AC4" s="3"/>
     </row>
-    <row r="5" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1022,7 +1022,7 @@
       <c r="AB5" s="2"/>
       <c r="AC5" s="3"/>
     </row>
-    <row r="6" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1052,7 +1052,7 @@
       <c r="AB6" s="2"/>
       <c r="AC6" s="3"/>
     </row>
-    <row r="7" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1082,7 +1082,7 @@
       <c r="AB7" s="2"/>
       <c r="AC7" s="3"/>
     </row>
-    <row r="8" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1112,7 +1112,7 @@
       <c r="AB8" s="2"/>
       <c r="AC8" s="3"/>
     </row>
-    <row r="9" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1142,7 +1142,7 @@
       <c r="AB9" s="2"/>
       <c r="AC9" s="3"/>
     </row>
-    <row r="10" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -1172,7 +1172,7 @@
       <c r="AB10" s="2"/>
       <c r="AC10" s="3"/>
     </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1202,7 +1202,7 @@
       <c r="AB11" s="2"/>
       <c r="AC11" s="3"/>
     </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1232,7 +1232,7 @@
       <c r="AB12" s="2"/>
       <c r="AC12" s="3"/>
     </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1262,7 +1262,7 @@
       <c r="AB13" s="2"/>
       <c r="AC13" s="3"/>
     </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1292,7 +1292,7 @@
       <c r="AB14" s="2"/>
       <c r="AC14" s="3"/>
     </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1322,7 +1322,7 @@
       <c r="AB15" s="2"/>
       <c r="AC15" s="3"/>
     </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1352,7 +1352,7 @@
       <c r="AB16" s="2"/>
       <c r="AC16" s="3"/>
     </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1382,7 +1382,7 @@
       <c r="AB17" s="2"/>
       <c r="AC17" s="3"/>
     </row>
-    <row r="18" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1412,7 +1412,7 @@
       <c r="AB18" s="2"/>
       <c r="AC18" s="3"/>
     </row>
-    <row r="19" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1442,7 +1442,7 @@
       <c r="AB19" s="2"/>
       <c r="AC19" s="3"/>
     </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1472,7 +1472,7 @@
       <c r="AB20" s="2"/>
       <c r="AC20" s="3"/>
     </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1502,7 +1502,7 @@
       <c r="AB21" s="2"/>
       <c r="AC21" s="3"/>
     </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1532,7 +1532,7 @@
       <c r="AB22" s="2"/>
       <c r="AC22" s="3"/>
     </row>
-    <row r="23" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1562,7 +1562,7 @@
       <c r="AB23" s="2"/>
       <c r="AC23" s="3"/>
     </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1592,7 +1592,7 @@
       <c r="AB24" s="2"/>
       <c r="AC24" s="3"/>
     </row>
-    <row r="25" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1622,7 +1622,7 @@
       <c r="AB25" s="2"/>
       <c r="AC25" s="3"/>
     </row>
-    <row r="26" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1652,7 +1652,7 @@
       <c r="AB26" s="2"/>
       <c r="AC26" s="3"/>
     </row>
-    <row r="27" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1682,7 +1682,7 @@
       <c r="AB27" s="2"/>
       <c r="AC27" s="3"/>
     </row>
-    <row r="28" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1712,7 +1712,7 @@
       <c r="AB28" s="2"/>
       <c r="AC28" s="3"/>
     </row>
-    <row r="29" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1742,7 +1742,7 @@
       <c r="AB29" s="2"/>
       <c r="AC29" s="3"/>
     </row>
-    <row r="30" spans="2:29" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -1772,7 +1772,7 @@
       <c r="AB30" s="5"/>
       <c r="AC30" s="6"/>
     </row>
-    <row r="31" spans="2:29" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:29" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:S2"/>
@@ -1794,7 +1794,7 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1806,13 +1806,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C029B9E9-BDC1-42BE-9BEC-3D4C1D8D146B}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>22</v>
       </c>

--- a/excel/finished/wg8#高炉/烧结矿理化指标报表.xlsx
+++ b/excel/finished/wg8#高炉/烧结矿理化指标报表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED91E2AF-86C1-40E6-9E53-300AA7445354}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1667815E-040A-4785-98A3-1C45E0A9D8B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2040" windowWidth="26955" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1275" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8高炉烧结矿理化指标报表" sheetId="1" r:id="rId1"/>
@@ -175,34 +175,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sj_R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sj_GL40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sj_G2540</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sj_G1625</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sj_G1016</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sj_G0510</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sj_GS5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>qt_SiO2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -211,10 +183,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>qt_R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kk_SiO2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -223,10 +191,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kk_R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sj_TFe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -236,6 +200,42 @@
   </si>
   <si>
     <t>kk_TFe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sj_S+40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sj_S-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sj_S10-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sj_S16-25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sj_S25-40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sj_S5-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sj_B2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qt_B2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kk_B2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -766,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AC31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -925,7 +925,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>23</v>
@@ -943,52 +943,52 @@
         <v>27</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="W4" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="X4" s="2"/>
       <c r="Y4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB4" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB4" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="AC4" s="3"/>
     </row>
